--- a/model/results/mix1_ggpos_h2pos/b_tech.xlsx
+++ b/model/results/mix1_ggpos_h2pos/b_tech.xlsx
@@ -3904,7 +3904,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307698</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -4001,7 +4001,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1.000000000000007</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -4056,7 +4056,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0.7692307692307694</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -4208,28 +4208,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692307692307697</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.000000000000004</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -5980,7 +5980,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1.583447081554205e-12</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -5989,7 +5989,7 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.5612244897959183</v>
+        <v>0.5612244897956361</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -6056,7 +6056,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>6.337046447783803e-12</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -6065,7 +6065,7 @@
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.5612244897959183</v>
+        <v>0.5612244897947885</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -6478,7 +6478,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999667</v>
       </c>
     </row>
     <row r="36">
@@ -6536,7 +6536,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -6554,7 +6554,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999667</v>
       </c>
     </row>
     <row r="37">
@@ -6764,7 +6764,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -6782,7 +6782,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999667</v>
       </c>
     </row>
     <row r="40">
@@ -6840,7 +6840,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -6858,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999667</v>
       </c>
     </row>
     <row r="41">
@@ -6916,7 +6916,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -6992,7 +6992,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -7010,7 +7010,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999667</v>
       </c>
     </row>
     <row r="43">
@@ -7068,7 +7068,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -7086,7 +7086,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999667</v>
       </c>
     </row>
   </sheetData>
@@ -7232,7 +7232,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307696</v>
+        <v>0.7692307692307698</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -7329,7 +7329,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1.000000000000007</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -7384,7 +7384,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307696</v>
+        <v>0.7692307692307703</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -7460,25 +7460,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0.7692307692307694</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -7536,28 +7536,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692307692307697</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.000000000000004</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9308,7 +9308,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1.583447081554205e-12</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -9317,7 +9317,7 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.5612244897959183</v>
+        <v>0.5612244897956361</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -9384,7 +9384,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>6.337046447783803e-12</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -9393,7 +9393,7 @@
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.5612244897959183</v>
+        <v>0.5612244897947885</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -9806,7 +9806,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="36">
@@ -9882,7 +9882,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="37">
@@ -10110,7 +10110,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="40">
@@ -10186,7 +10186,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="41">
@@ -10338,7 +10338,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="43">
@@ -10414,7 +10414,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
   </sheetData>
@@ -10560,7 +10560,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307696</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -10657,7 +10657,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1.000000000000007</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -10712,7 +10712,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307696</v>
+        <v>0.7692307692307698</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -10724,13 +10724,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1.000000000000006</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -10788,25 +10788,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0.7692307692307694</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -10864,28 +10864,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692307692307697</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.000000000000004</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -12636,7 +12636,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1.583447081554205e-12</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -12645,7 +12645,7 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.5612244897959183</v>
+        <v>0.5612244897956361</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -12712,7 +12712,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>6.337046447783803e-12</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -12721,7 +12721,7 @@
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.5612244897959183</v>
+        <v>0.5612244897947885</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -13134,7 +13134,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="36">
@@ -13192,7 +13192,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -13210,7 +13210,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="37">
@@ -13420,7 +13420,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -13438,7 +13438,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="40">
@@ -13496,7 +13496,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -13514,7 +13514,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="41">
@@ -13648,7 +13648,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -13666,7 +13666,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="43">
@@ -13724,7 +13724,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -13742,7 +13742,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
   </sheetData>
@@ -13900,7 +13900,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -13985,7 +13985,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1.000000000000007</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -14040,7 +14040,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307663</v>
+        <v>0.7692307692307698</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -14052,13 +14052,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G4" t="n">
-        <v>4.05748317587371e-15</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -14116,25 +14116,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0.7692307692307696</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -14192,28 +14192,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692307692307696</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.000000000000004</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -15964,7 +15964,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1.583447081554205e-12</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -15973,7 +15973,7 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.5612244897959183</v>
+        <v>0.5612244897956361</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -16040,7 +16040,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>6.337046447783803e-12</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -16049,7 +16049,7 @@
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.5612244897959183</v>
+        <v>0.5612244897947885</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -16462,7 +16462,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="36">
@@ -16520,7 +16520,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -16538,7 +16538,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="37">
@@ -16748,7 +16748,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -16766,7 +16766,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="40">
@@ -16824,7 +16824,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -16842,7 +16842,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="41">
@@ -16976,7 +16976,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -16994,7 +16994,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="43">
@@ -17052,7 +17052,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -17070,7 +17070,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
   </sheetData>
@@ -17216,7 +17216,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307696</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -17304,16 +17304,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.000000000000007</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -17368,7 +17368,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307663</v>
+        <v>0.7692307692307698</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -17386,10 +17386,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="I4" t="n">
         <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.000000000000008</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -17444,28 +17444,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0.7692307692307696</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -17520,28 +17520,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692307692307697</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.000000000000004</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -19292,16 +19292,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1.583447081554205e-12</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>-3.045365515125668e-13</v>
       </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.5612244897959183</v>
+        <v>0.5612244897956361</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -19368,16 +19368,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>6.337046447783803e-12</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>-1.30366822130691e-12</v>
       </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.5612244897959183</v>
+        <v>0.5612244897947885</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -19790,7 +19790,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="36">
@@ -19866,7 +19866,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="37">
@@ -20094,7 +20094,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="40">
@@ -20170,7 +20170,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="41">
@@ -20322,7 +20322,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="43">
@@ -20398,7 +20398,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
   </sheetData>
@@ -20544,7 +20544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307696</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -20565,7 +20565,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -20620,7 +20620,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307696</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -20641,7 +20641,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000016</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307663</v>
+        <v>0.7692307692307696</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -20717,7 +20717,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.000000000000008</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -20772,7 +20772,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307878</v>
+        <v>0.7692307692307696</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -20793,7 +20793,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>1.000000000000015</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -20848,7 +20848,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.1417910447761345</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -20860,16 +20860,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.9999999999999952</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0.9999999999999952</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0.1843283582089553</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22620,16 +22620,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1.583447081554205e-12</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>-3.045365515125668e-13</v>
       </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.5612244897959183</v>
+        <v>0.5612244897956361</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -22696,7 +22696,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>6.337046447783803e-12</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -22705,7 +22705,7 @@
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.5612244897959183</v>
+        <v>0.5612244897944957</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -23118,7 +23118,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="36">
@@ -23176,7 +23176,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -23194,7 +23194,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="37">
@@ -23404,7 +23404,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="40">
@@ -23480,7 +23480,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="41">
@@ -23632,7 +23632,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="43">
@@ -23708,7 +23708,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -23726,7 +23726,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
   </sheetData>
@@ -23893,7 +23893,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -24024,7 +24024,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307663</v>
+        <v>0.7692307692307696</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -24045,7 +24045,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.000000000000007</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -24100,7 +24100,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307696</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -24112,7 +24112,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -24176,7 +24176,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692307692307696</v>
+        <v>0.1417910447761345</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -24188,16 +24188,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.999999999999995</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0.9999999999999952</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0.1843283582089556</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -25948,7 +25948,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1.583447081554205e-12</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -25957,7 +25957,7 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.5612244897959183</v>
+        <v>0.5612244897955628</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -26024,7 +26024,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>6.337046447783803e-12</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -26033,7 +26033,7 @@
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.5612244897959183</v>
+        <v>0.5612244897944957</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -26446,7 +26446,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="36">
@@ -26504,7 +26504,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -26522,7 +26522,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="37">
@@ -26732,7 +26732,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -26750,7 +26750,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="40">
@@ -26808,7 +26808,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -26826,7 +26826,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="41">
@@ -26960,7 +26960,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="43">
@@ -27036,7 +27036,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -27054,7 +27054,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
   </sheetData>
@@ -27200,7 +27200,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307527</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27212,7 +27212,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>1.000000000000009</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27221,7 +27221,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000016</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27276,7 +27276,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307696</v>
+        <v>0.7692307692307676</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27288,7 +27288,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999999999999996</v>
+        <v>1.000000000000009</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27297,7 +27297,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>1.00000000000001</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27352,7 +27352,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307666</v>
+        <v>0.7692307692307676</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27364,16 +27364,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1.000000000000003</v>
+        <v>1.000000000000009</v>
       </c>
       <c r="G4" t="n">
-        <v>2.822596991912146e-15</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9999999999999979</v>
+        <v>1.00000000000001</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27449,7 +27449,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>1.000000000000015</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27504,7 +27504,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.1417910447761345</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27516,16 +27516,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.9999999999999961</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0.9999999999999952</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0.1843283582089556</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -29276,7 +29276,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1.583447081554205e-12</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -29285,7 +29285,7 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.5612244897959183</v>
+        <v>0.5612244897955628</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -29352,7 +29352,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>6.337046447783803e-12</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29361,7 +29361,7 @@
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.5612244897959183</v>
+        <v>0.5612244897944957</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -29774,7 +29774,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="36">
@@ -29832,7 +29832,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -29850,7 +29850,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="37">
@@ -30060,7 +30060,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -30078,7 +30078,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="40">
@@ -30136,7 +30136,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -30154,7 +30154,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="41">
@@ -30288,7 +30288,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -30306,7 +30306,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="43">
@@ -30364,7 +30364,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -30382,7 +30382,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
   </sheetData>
@@ -30528,7 +30528,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307696</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -30549,7 +30549,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000016</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -30625,7 +30625,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>1.000000000000016</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -30680,7 +30680,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307666</v>
+        <v>0.7692307692307696</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -30692,7 +30692,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999999999999947</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -30701,7 +30701,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.000000000000013</v>
+        <v>1.000000000000016</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -30777,7 +30777,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>1.000000000000015</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -30832,7 +30832,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.1417910447761231</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -30844,16 +30844,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.9999999999999943</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0.9999999999999952</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0.184328358208932</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -32604,7 +32604,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1.583447081554205e-12</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -32613,7 +32613,7 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.5612244897959183</v>
+        <v>0.5612244897955628</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -32680,7 +32680,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>6.337046447783803e-12</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -32689,7 +32689,7 @@
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.5612244897959183</v>
+        <v>0.5612244897944957</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -33102,7 +33102,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="36">
@@ -33160,7 +33160,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -33178,7 +33178,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="37">
@@ -33388,7 +33388,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -33406,7 +33406,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="40">
@@ -33464,7 +33464,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -33482,7 +33482,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="41">
@@ -33616,7 +33616,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -33634,7 +33634,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="43">
@@ -33692,7 +33692,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -33710,7 +33710,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
   </sheetData>
@@ -33856,7 +33856,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307787</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -33877,7 +33877,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000012</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -33932,7 +33932,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.769230769230774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -33944,16 +33944,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
+        <v>0.9999999999999811</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9999999999999811</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.9999999999999993</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -34008,7 +34008,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307666</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -34020,16 +34020,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999999999999947</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>5.292369359835275e-15</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.999999999999996</v>
+        <v>1.000000000000016</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -34105,7 +34105,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>1.000000000000015</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -34160,7 +34160,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692307692307682</v>
+        <v>0.1417910447761413</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -34172,16 +34172,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.9999999999999941</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0.9999999999999952</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0.1843283582089542</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0.5612244897959183</v>
+        <v>0.5612244897959184</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -35932,16 +35932,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1.583447081554205e-12</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>-3.045365515125668e-13</v>
       </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.5612244897959183</v>
+        <v>0.5612244897956361</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -36008,16 +36008,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>6.337046447783803e-12</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>-1.30366822130691e-12</v>
       </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.5612244897959183</v>
+        <v>0.5612244897947885</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36430,7 +36430,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="36">
@@ -36488,7 +36488,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -36506,7 +36506,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="37">
@@ -36716,7 +36716,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -36734,7 +36734,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="40">
@@ -36792,7 +36792,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -36810,7 +36810,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="41">
@@ -36944,7 +36944,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -36962,7 +36962,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="43">
@@ -37020,7 +37020,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -37038,7 +37038,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
   </sheetData>
@@ -37184,7 +37184,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307698</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -37336,7 +37336,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9465937524317903</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -37412,7 +37412,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -39260,7 +39260,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1.583447081554205e-12</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -39336,7 +39336,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>6.337046447783803e-12</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -40512,7 +40512,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307698</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -40533,7 +40533,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000016</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -40609,7 +40609,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>1.000000000000016</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -40664,7 +40664,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307666</v>
+        <v>0.7692307692307507</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -40676,16 +40676,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999999999999947</v>
+        <v>1.000000000000008</v>
       </c>
       <c r="G4" t="n">
-        <v>5.292369359835275e-15</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.999999999999996</v>
+        <v>1.000000000000016</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -40740,7 +40740,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307696</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -40761,7 +40761,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>1.000000000000015</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -40816,7 +40816,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692307692307682</v>
+        <v>0.1417910447761422</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -40828,16 +40828,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.9999999999999938</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0.9999999999999938</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0.1843283582089542</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -42588,7 +42588,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1.583447081554205e-12</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -42597,7 +42597,7 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.5612244897959183</v>
+        <v>0.5612244897955628</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -42664,7 +42664,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>6.337046447783803e-12</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -42673,7 +42673,7 @@
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.5612244897959183</v>
+        <v>0.5612244897944957</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -43086,7 +43086,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="36">
@@ -43144,7 +43144,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -43162,7 +43162,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="37">
@@ -43372,7 +43372,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -43390,7 +43390,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="40">
@@ -43448,7 +43448,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -43466,7 +43466,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="41">
@@ -43600,7 +43600,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -43618,7 +43618,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="43">
@@ -43676,7 +43676,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -43694,7 +43694,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
   </sheetData>
@@ -43840,7 +43840,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307698</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -43992,7 +43992,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9465937524317903</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -44068,7 +44068,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -45916,7 +45916,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1.583447081554205e-12</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -45992,7 +45992,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>6.337046447783803e-12</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -47168,7 +47168,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307698</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -47320,7 +47320,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9465937524317903</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -47396,7 +47396,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -49244,7 +49244,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1.583447081554205e-12</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -49320,7 +49320,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>6.337046447783803e-12</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -49742,7 +49742,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="36">
@@ -49818,7 +49818,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="37">
@@ -50046,7 +50046,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="40">
@@ -50122,7 +50122,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="41">
@@ -50274,7 +50274,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="43">
@@ -50350,7 +50350,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
   </sheetData>
@@ -50496,7 +50496,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307698</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -50593,7 +50593,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5101809383213454</v>
+        <v>0.8817003149128634</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -50648,7 +50648,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9465937524317903</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -50669,7 +50669,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -50724,28 +50724,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0.7692307692307694</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -50806,7 +50806,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -52572,13 +52572,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1.583447081554205e-12</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>0.9999999999997308</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -52648,13 +52648,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>6.337046447783803e-12</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>0.9999999999989228</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -53052,7 +53052,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>1.000000000000002</v>
+        <v>1.00000000000002</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -53070,7 +53070,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="36">
@@ -53128,7 +53128,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>1.000000000000002</v>
+        <v>1.00000000000002</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -53146,7 +53146,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="37">
@@ -53356,7 +53356,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>1.000000000000002</v>
+        <v>1.00000000000002</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -53374,7 +53374,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="40">
@@ -53432,7 +53432,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>1.000000000000002</v>
+        <v>1.00000000000002</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -53450,7 +53450,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="41">
@@ -53508,7 +53508,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>1.000000000000002</v>
+        <v>1.00000000000002</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -53584,7 +53584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>1.000000000000002</v>
+        <v>1.00000000000002</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -53602,7 +53602,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="43">
@@ -53660,7 +53660,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>1.000000000000002</v>
+        <v>1.00000000000002</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -53678,7 +53678,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
   </sheetData>
@@ -53824,7 +53824,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307698</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -53921,7 +53921,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1.000000000000007</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -53976,7 +53976,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9465937524317903</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -54052,25 +54052,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0.7692307692307694</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -54134,7 +54134,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -54149,7 +54149,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.000000000000004</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -55900,13 +55900,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1.583447081554205e-12</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>0.9999999999997307</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -55976,13 +55976,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>6.337046447783803e-12</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>0.9999999999989228</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -56398,7 +56398,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="36">
@@ -56474,7 +56474,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="37">
@@ -56702,7 +56702,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="40">
@@ -56778,7 +56778,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="41">
@@ -56930,7 +56930,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="43">
@@ -57006,7 +57006,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
   </sheetData>
@@ -57152,7 +57152,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307698</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -57164,13 +57164,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -57249,7 +57249,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1.000000000000007</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -57304,7 +57304,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9465937524317903</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -57316,13 +57316,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -57380,25 +57380,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0.7692307692307694</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -57462,7 +57462,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -57477,7 +57477,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.000000000000004</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -59228,13 +59228,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1.583447081554205e-12</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>0.9999999999997308</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -59304,13 +59304,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>6.337046447783803e-12</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>0.9999999999989228</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -59726,7 +59726,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="36">
@@ -59802,7 +59802,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="37">
@@ -60030,7 +60030,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="40">
@@ -60106,7 +60106,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="41">
@@ -60258,7 +60258,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="43">
@@ -60334,7 +60334,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
   </sheetData>
@@ -60480,7 +60480,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307698</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -60492,13 +60492,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -60577,7 +60577,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1.000000000000007</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -60632,7 +60632,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9465937524317903</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -60644,13 +60644,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -60708,25 +60708,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0.7692307692307694</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -60790,7 +60790,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -60805,7 +60805,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.000000000000004</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -62556,7 +62556,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1.583447081554205e-12</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -62565,7 +62565,7 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.5612244897959183</v>
+        <v>0.5612244897956361</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -62632,7 +62632,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>6.337046447783803e-12</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -62641,7 +62641,7 @@
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.5612244897959183</v>
+        <v>0.5612244897947885</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -63054,7 +63054,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="36">
@@ -63130,7 +63130,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="37">
@@ -63358,7 +63358,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="40">
@@ -63434,7 +63434,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="41">
@@ -63586,7 +63586,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="43">
@@ -63662,7 +63662,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
   </sheetData>
@@ -63808,7 +63808,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307698</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -63905,7 +63905,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1.000000000000007</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -64036,25 +64036,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0.7692307692307694</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -64118,7 +64118,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -64133,7 +64133,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.000000000000004</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -65884,7 +65884,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1.583447081554205e-12</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -65893,7 +65893,7 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.5612244897959183</v>
+        <v>0.5612244897956361</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -65960,7 +65960,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>6.337046447783803e-12</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -65969,7 +65969,7 @@
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.5612244897959183</v>
+        <v>0.5612244897947885</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -66382,7 +66382,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="36">
@@ -66458,7 +66458,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="37">
@@ -66686,7 +66686,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="40">
@@ -66762,7 +66762,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="41">
@@ -66914,7 +66914,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="43">
@@ -66990,7 +66990,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
   </sheetData>
